--- a/DOWNLOADS/EDITAIS/U_153128_E_762025/U_153128_E_762025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_153128_E_762025/U_153128_E_762025_master.xlsx
@@ -43,10 +43,10 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>Projetor Multimídia, Voltagem:100/240 V, Frequência:50 A 60 Hz, Quantidade Entrada Rgb:1 S-Vídeo/1Rca Un, Quantidade Entradas Vídeo:01: Svideo E 04 Pinos Rca Un, Tipo Zoom:Manual/Digital, Tipo:Portátil, Capacidade Projeção Cor:1.07 Bilhões De Cores Px, Características Adicionais:Conexão Hdmi, Rgb E Usb, Wifi, Seen Mirror/Sharing, Luminosidade Mínima:3.600 Lm, Tipo Foco:Manual, Tipo Projeção:Frontal/Traseiro/Teto/Mesa. Obs.: Resolução Nativa 1920 X 1080.</t>
-  </si>
-  <si>
-    <t>Sistema Circuito Fechado Tv, Componentes:Dvr 32 Canais, Tipo Sistema:Gravação Digital, Aplicação:Sistema De Segurança. Obs.: 1) cada kit contendo DVRs 32 canais e 32 câmeras, com as características: DVRs com resolução 1080p, tecnologia iMHDX, detecção de pessoas e veículos, compressão H.265+, criptografia de áudio/vídeo, inteligência artificial para análise de vídeo, tecnologia Multi HD, serviço em nuvem; e câmeras tipo bullet, modelo HDCVI - VHL, Full HD 1080p, IP66, com infravermelho mínimo de 20 metros, proteção anti-UV e contra surtos de tensão; 2) tecnologia compatível com os equipamentos da marca INTELBRAS, que já compõem a infraestrutura existente.</t>
+    <t>Projetor Multimídia, Voltagem:100/240 V, Freqüência:50 A 60 Hz, Quantidade Entrada Rgb:1 S-Vídeo/1Rca Un, Quantidade Entradas Vídeo:01: Svideo E 04 Pinos Rca Un, Tipo Zoom:Manual/Digital, Tipo:Portátil, Capacidade Projeção Cor:1.07 Bilhões De Cores Px, Características Adicionais:Conexão Hdmi, Rgb E Usb, Wifi, Seen Mirror/Sharing, Luminosidade Mínima:3.600 Lm, Tipo Foco:Manual, Tipo Projeção:Frontal/Traseiro/Teto/Mesa. Obs.: Resolução Nativa 1920 X 1080.</t>
+  </si>
+  <si>
+    <t>Sistema Circuito Fechado Tv, Componentes:DVR 32 Canais, Tipo Sistema:Gravação Digital, Aplicação:Sistema De Segurança. Obs.: 1) cada kit contendo DVRs 32 canais e 32 câmeras, com as características: DVRs com resolução 1080p, tecnologia iMHDX, detecção de pessoas e veículos, compressão H.265+, criptografia de áudio/vídeo, inteligência artificial para análise de vídeo, tecnologia Multi HD, serviço em nuvem; e câmeras tipo bullet, modelo HDCVI - VHL, Full HD 1080p, IP66, com infravermelho mínimo de 20 metros, proteção anti-UV e contra surtos de tensão; 2) tecnologia compatível com os equipamentos da marca INTELBRAS, que já compõem a infraestrutura existente.</t>
   </si>
   <si>
     <t>U_153128_E_762025</t>
